--- a/Inputs/Deskcount/2025/January Deskcount.xlsx
+++ b/Inputs/Deskcount/2025/January Deskcount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greystar365.sharepoint.com/sites/CorporateOfficeStrategy/Shared Documents/General/Occupancy Data/Dashboard/Inputs/Deskcount/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3517D326-4FDC-4AA8-9F13-647C0194B03E}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1748669A-6ED5-43AA-AF40-79C7BAEEAA63}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deskcount" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>OfficeLocation</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>No.669 Xinzha Road, One Museum, Jingan District</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,7 +1089,7 @@
         <v>45658</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1166,7 +1169,7 @@
         <v>45658</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1286,7 +1289,7 @@
         <v>45658</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1586,7 +1589,7 @@
         <v>45658</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1606,7 +1609,7 @@
         <v>45658</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1717,7 +1720,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="7">
         <v>3509</v>
@@ -1786,7 +1789,7 @@
         <v>45658</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,7 +1809,7 @@
         <v>45658</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1826,7 +1829,7 @@
         <v>45658</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1846,7 +1849,7 @@
         <v>45658</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1935,6 +1938,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="247b3ed0-617a-4d1d-b8bd-a66944492619" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="334de605-b0fc-4c39-b9f0-ad19cf79a3ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012DDEC86E47B0D488EDE8526C5FE0957" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bf1f00915b321be1014b44a0a0242ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="334de605-b0fc-4c39-b9f0-ad19cf79a3ca" xmlns:ns3="247b3ed0-617a-4d1d-b8bd-a66944492619" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a82e13236a0edc0785210399e43caf" ns2:_="" ns3:_="">
     <xsd:import namespace="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
@@ -2195,31 +2218,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="247b3ed0-617a-4d1d-b8bd-a66944492619" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="334de605-b0fc-4c39-b9f0-ad19cf79a3ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE32A18-BF8C-43D2-B419-E3E7B70A7981}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20919586-F825-4328-A511-702B7F6D9530}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2230,10 +2229,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74210780-D2ED-4E8B-8299-24F1A344B303}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE32A18-BF8C-43D2-B419-E3E7B70A7981}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
+    <ds:schemaRef ds:uri="247b3ed0-617a-4d1d-b8bd-a66944492619"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>